--- a/9. excel/transactions2.xlsx
+++ b/9. excel/transactions2.xlsx
@@ -20,6 +20,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -443,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -486,12 +487,8 @@
       <c r="C2" s="1" t="n">
         <v>5.95</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>5.355</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2 * 0.9</f>
-        <v/>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
@@ -504,12 +501,8 @@
       <c r="C3" s="1" t="n">
         <v>6.95</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>6.255</v>
-      </c>
-      <c r="E3" s="1">
-        <f>C3 * 0.9</f>
-        <v/>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="2">
@@ -522,12 +515,8 @@
       <c r="C4" s="1" t="n">
         <v>7.96</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>7.164</v>
-      </c>
-      <c r="E4" s="1">
-        <f>C4 * 0.9</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/9. excel/transactions2.xlsx
+++ b/9. excel/transactions2.xlsx
@@ -155,6 +155,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -531,5 +615,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>